--- a/AdminInvoiceHandler/ExcelData/ANAGRAFICA P.IVA AL 05 05 2021.xlsx
+++ b/AdminInvoiceHandler/ExcelData/ANAGRAFICA P.IVA AL 05 05 2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agostino.tenuta\Documents\Amministrazione\AdminInvoiceHandler\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paolo.stumpo\Desktop\Amministrazione\AdminInvoiceHandler\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F6DFA8-31A3-4877-ACEC-86EDC1F0956B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C6C06E-1804-4C5E-8CC3-9264736DC529}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="153">
   <si>
     <t>M</t>
   </si>
@@ -48,15 +48,6 @@
     <t>RA_EMAIL</t>
   </si>
   <si>
-    <t>RESIDENZA_INDIRIZZO</t>
-  </si>
-  <si>
-    <t>RESIDENZA_COMUNE</t>
-  </si>
-  <si>
-    <t>RESIDENZA_PROVINCIA</t>
-  </si>
-  <si>
     <t>CONTRATTO</t>
   </si>
   <si>
@@ -84,12 +75,6 @@
     <t>STEFANO.BONFATTI@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>VIALE PICENO 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MILANO</t>
-  </si>
-  <si>
     <t>PARTITA IVA</t>
   </si>
   <si>
@@ -141,12 +126,6 @@
     <t>RUGGERO.CERVI@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>VIA OLMO 2</t>
-  </si>
-  <si>
-    <t>CERNUSCO S/NAVIGLIO MI</t>
-  </si>
-  <si>
     <t>CHIODA</t>
   </si>
   <si>
@@ -156,12 +135,6 @@
     <t>ALESSANDRO.CHIODA@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>VIA SANTA CATERINA 8/1</t>
-  </si>
-  <si>
-    <t>CABIATE CO</t>
-  </si>
-  <si>
     <t>SAL</t>
   </si>
   <si>
@@ -174,12 +147,6 @@
     <t>RUGGERO.COLLENGHI@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>PIAZZA TRENTO E TRIESTE 2</t>
-  </si>
-  <si>
-    <t>BUSTO ARSIZIO VA</t>
-  </si>
-  <si>
     <t>XCUBED SRL</t>
   </si>
   <si>
@@ -198,12 +165,6 @@
     <t>EMANUELA.COLO@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>VIA TRENTO  15</t>
-  </si>
-  <si>
-    <t>PESCHIERA BORROMEO MI</t>
-  </si>
-  <si>
     <t>MKT</t>
   </si>
   <si>
@@ -219,12 +180,6 @@
     <t>MARIO.COSTA@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>VIA GARIGLIANO 6</t>
-  </si>
-  <si>
-    <t>MILANO</t>
-  </si>
-  <si>
     <t>IR</t>
   </si>
   <si>
@@ -243,12 +198,6 @@
     <t>ANDREA.DORAZIO@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>VIA CONCILIAZIONE 30</t>
-  </si>
-  <si>
-    <t>OLGIATE OLONA VA</t>
-  </si>
-  <si>
     <t>FLYWARE</t>
   </si>
   <si>
@@ -294,12 +243,6 @@
     <t>ADRIANO.GRENDENE@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>VIA ROLLINO 14</t>
-  </si>
-  <si>
-    <t>CAVAGLIA' BI</t>
-  </si>
-  <si>
     <t>INSALACO</t>
   </si>
   <si>
@@ -312,12 +255,6 @@
     <t>MAURIZIO.INSALACO@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>VIA VETERA 3/C</t>
-  </si>
-  <si>
-    <t>VARESE</t>
-  </si>
-  <si>
     <t>KOUAYE  NGAKOUE</t>
   </si>
   <si>
@@ -342,12 +279,6 @@
     <t>riccardo.lambertoni@s2e-pro.com</t>
   </si>
   <si>
-    <t>VIA BUENOS AIRES 96</t>
-  </si>
-  <si>
-    <t>TORINO</t>
-  </si>
-  <si>
     <t>LAMMOGLIA</t>
   </si>
   <si>
@@ -360,12 +291,6 @@
     <t>BIAGIO.LAMMOGLIA@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>VIA KENNEDY 66</t>
-  </si>
-  <si>
-    <t>RIVANAZZANO TERME PV</t>
-  </si>
-  <si>
     <t>LANNI</t>
   </si>
   <si>
@@ -408,12 +333,6 @@
     <t>FRANCESCO.MALIZIA@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>VIA SAN GIORGIO 4</t>
-  </si>
-  <si>
-    <t>ALBAIRATE MI</t>
-  </si>
-  <si>
     <t>MARTINO</t>
   </si>
   <si>
@@ -426,12 +345,6 @@
     <t>SONIA.MARTINO@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>VIA SAN SIRO 1</t>
-  </si>
-  <si>
-    <t>MILANO MI</t>
-  </si>
-  <si>
     <t>SONIA MARTINO</t>
   </si>
   <si>
@@ -444,12 +357,6 @@
     <t>ROBERTO.OBIALERO@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>VIA SUSA 43A</t>
-  </si>
-  <si>
-    <t>CHIUSA S. MICHELE TO</t>
-  </si>
-  <si>
     <t>CYDBADV</t>
   </si>
   <si>
@@ -465,9 +372,6 @@
     <t>VINCENZO.SABATINI@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>VIA MONCUCCO 26</t>
-  </si>
-  <si>
     <t>VINCENZO SABATINI</t>
   </si>
   <si>
@@ -483,12 +387,6 @@
     <t>marco.salerni@s2e-pro.com</t>
   </si>
   <si>
-    <t>VIA LUIGI UNGARELLI 7</t>
-  </si>
-  <si>
-    <t>ROMA</t>
-  </si>
-  <si>
     <t>DIR</t>
   </si>
   <si>
@@ -507,9 +405,6 @@
     <t>ELVIRA.SENATORE@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>VIA BRACCIANESE 770</t>
-  </si>
-  <si>
     <t>SICOLI</t>
   </si>
   <si>
@@ -519,9 +414,6 @@
     <t>ALESSANDRO.SICOLI@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>VIA MONSIGNOR LUIGI MARTINI 8</t>
-  </si>
-  <si>
     <t>Studio Ing. Alessandro Sicoli</t>
   </si>
   <si>
@@ -534,12 +426,6 @@
     <t>MASSIMILIANO.TENCONI@S2E-PRO.COM</t>
   </si>
   <si>
-    <t>VIA TOMMASO GROSSI 7</t>
-  </si>
-  <si>
-    <t>RHO MI</t>
-  </si>
-  <si>
     <t>CENTRICO</t>
   </si>
   <si>
@@ -555,12 +441,6 @@
     <t>sonia.terranova@s2e-mail.com</t>
   </si>
   <si>
-    <t>VIA COLOMBO 8</t>
-  </si>
-  <si>
-    <t>CASARILE MI</t>
-  </si>
-  <si>
     <t>HRM</t>
   </si>
   <si>
@@ -604,12 +484,6 @@
   </si>
   <si>
     <t>GIOVANNI.VISMARA@S2E-PRO.COM</t>
-  </si>
-  <si>
-    <t>VIA ARMANDO DIAZ 3</t>
-  </si>
-  <si>
-    <t>BOLLATE</t>
   </si>
   <si>
     <t>AFCL</t>
@@ -1167,20 +1041,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:M31" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:M31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:J31" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:J31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J31">
     <sortCondition ref="B2:B31"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="M"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="COGNOME"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NOME"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CODICE_FISCALE"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="RA_EMAIL"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="RESIDENZA_INDIRIZZO"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="RESIDENZA_COMUNE"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RESIDENZA_PROVINCIA"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="CONTRATTO"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="CDC"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="RAGIONE_SOCIALE_FORNITORE"/>
@@ -1488,13 +1359,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1503,16 +1374,13 @@
     <col min="3" max="3" width="23.54296875" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" customWidth="1"/>
-    <col min="8" max="8" width="22.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" customWidth="1"/>
-    <col min="11" max="11" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1543,938 +1411,803 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>40000</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
       <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>40012</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>40025</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>9160420965</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>40013</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>40001</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
+      <c r="H6" t="s">
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>40002</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>40014</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>40003</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>40004</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>40024</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>40015</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>40016</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>40017</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>40029</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D15">
         <v>1354537812</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" t="s">
-        <v>98</v>
-      </c>
-      <c r="M15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>40018</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>40022</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>40010</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>152</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>194</v>
-      </c>
-      <c r="L18" t="s">
-        <v>115</v>
-      </c>
-      <c r="M18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>40027</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D19">
         <v>4371900160</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>94</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" t="s">
-        <v>119</v>
-      </c>
-      <c r="L19" t="s">
-        <v>120</v>
-      </c>
-      <c r="M19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>40019</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
-      </c>
-      <c r="J20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>40005</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>104</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" t="s">
-        <v>133</v>
-      </c>
-      <c r="L21" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>40006</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" t="s">
-        <v>139</v>
-      </c>
-      <c r="L22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>40007</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" t="s">
-        <v>145</v>
-      </c>
-      <c r="L23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>40011</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="H24" t="s">
+        <v>119</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>152</v>
-      </c>
-      <c r="K24" t="s">
-        <v>153</v>
-      </c>
-      <c r="L24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>40020</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
-      </c>
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>40028</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>127</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" t="s">
-        <v>163</v>
-      </c>
-      <c r="M26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>40008</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="F27" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" t="s">
-        <v>72</v>
-      </c>
-      <c r="L27" t="s">
-        <v>169</v>
-      </c>
-      <c r="M27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>40009</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="F28" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>175</v>
+        <v>136</v>
+      </c>
+      <c r="H28" t="s">
+        <v>137</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J28" t="s">
-        <v>176</v>
-      </c>
-      <c r="K28" t="s">
-        <v>177</v>
-      </c>
-      <c r="L28" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>40026</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>141</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>142</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" t="s">
-        <v>182</v>
-      </c>
-      <c r="L29" t="s">
-        <v>183</v>
-      </c>
-      <c r="M29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>40023</v>
       </c>
       <c r="B30" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
-      </c>
-      <c r="J30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>40021</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
-      </c>
-      <c r="F31" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>192</v>
-      </c>
-      <c r="J31" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
